--- a/权责发生制计算表.xlsx
+++ b/权责发生制计算表.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\数智\Desktop\project\electron-vue-compute-rent\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588115A2-8631-4319-B2BD-4956391EB821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
     <sheet name="2022" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
   <si>
     <t>2023年权责发生制</t>
   </si>
@@ -265,20 +284,64 @@
   </si>
   <si>
     <t>年终止日期</t>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期房租</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期年度天数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日租金金额（元）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月权责金额[7月权责天数（2023.7.1-2023.7.31）]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计权责金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月权责金额[8月权责天数（2023.8.1-2023.8.31）]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年度金额（元）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,151 +375,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,194 +402,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -716,255 +463,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,12 +491,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,206 +503,183 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1453,93 +929,95 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="31"/>
-    <col min="2" max="2" width="16.6363636363636" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" style="32" customWidth="1"/>
-    <col min="4" max="4" width="30.1818181818182" style="32" customWidth="1"/>
-    <col min="5" max="5" width="12.7272727272727" style="32"/>
-    <col min="6" max="6" width="19" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16.7272727272727" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9" style="32"/>
-    <col min="9" max="9" width="16.2727272727273" style="32"/>
-    <col min="10" max="10" width="16.8181818181818" style="32" customWidth="1"/>
-    <col min="11" max="13" width="14" style="32"/>
-    <col min="14" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="16.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="18" customWidth="1"/>
+    <col min="4" max="4" width="32.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="18"/>
+    <col min="6" max="6" width="19" style="18" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="18" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="30.25" style="18" customWidth="1"/>
+    <col min="11" max="11" width="28.625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="14" style="18"/>
+    <col min="13" max="13" width="19.5" style="18" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="18" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:22">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+    </row>
+    <row r="2" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
+      <c r="B2" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>94</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>14</v>
@@ -1553,48 +1031,48 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:22">
-      <c r="A3" s="25">
+    <row r="3" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="21">
         <v>2018042401</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="39">
-        <v>1103478.89</v>
-      </c>
-      <c r="F3" s="40">
+      <c r="E3" s="57">
+        <v>1103478.8899999999</v>
+      </c>
+      <c r="F3" s="58">
         <v>45170</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="60">
         <v>45473</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="29">
         <f>(G3-F3)+1</f>
         <v>304</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="31">
         <f>E3/H3</f>
-        <v>3629.86476973684</v>
-      </c>
-      <c r="J3" s="57">
+        <v>3629.8647697368419</v>
+      </c>
+      <c r="J3" s="31">
         <v>0</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="31">
         <v>0</v>
       </c>
-      <c r="L3" s="57">
+      <c r="L3" s="31">
         <f>J3+K3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1604,23 +1082,23 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" customHeight="1" spans="1:22">
-      <c r="A4" s="27"/>
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1630,26 +1108,26 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" customHeight="1" spans="1:22">
-      <c r="A5" s="9">
+    <row r="5" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="22">
         <v>202315</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="23">
         <v>370379.17</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="24">
         <v>45170</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="24">
         <v>45535</v>
       </c>
       <c r="H5" s="3">
@@ -1658,18 +1136,18 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" ref="I5:I42" si="1">E5/H5</f>
-        <v>1011.96494535519</v>
+        <v>1011.9649453551912</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
       </c>
       <c r="K5" s="4">
         <f>I5*31</f>
-        <v>31370.9133060109</v>
+        <v>31370.913306010927</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" ref="L5:L42" si="2">J5+K5</f>
-        <v>31370.9133060109</v>
+        <v>31370.913306010927</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1682,22 +1160,22 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" customHeight="1" spans="1:22">
-      <c r="A6" s="9"/>
-      <c r="B6" s="37">
+    <row r="6" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="22">
         <v>202316</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="23">
         <v>10501.2</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="24">
         <v>45170</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="24">
         <v>45535</v>
       </c>
       <c r="H6" s="3">
@@ -1706,7 +1184,7 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="1"/>
-        <v>28.6918032786885</v>
+        <v>28.691803278688525</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -1729,26 +1207,26 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" customHeight="1" spans="1:22">
-      <c r="A7" s="25">
+    <row r="7" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="48">
         <v>201714</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>506475</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="25">
         <v>45047</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="25">
         <v>45138</v>
       </c>
       <c r="H7" s="3">
@@ -1757,18 +1235,18 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>5505.16304347826</v>
+        <v>5505.163043478261</v>
       </c>
       <c r="J7" s="4">
         <f>I7*31</f>
-        <v>170660.054347826</v>
+        <v>170660.05434782608</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="2"/>
-        <v>170660.054347826</v>
+        <v>170660.05434782608</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1781,11 +1259,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" customHeight="1" spans="1:22">
-      <c r="A8" s="27"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="52"/>
+    <row r="8" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="1">
         <v>506475</v>
       </c>
@@ -1801,18 +1279,18 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="1"/>
-        <v>5505.16304347826</v>
+        <v>5505.163043478261</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="4">
         <f>I8*31</f>
-        <v>170660.054347826</v>
+        <v>170660.05434782608</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="2"/>
-        <v>170660.054347826</v>
+        <v>170660.05434782608</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1825,17 +1303,17 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" customHeight="1" spans="1:22">
-      <c r="A9" s="9">
+    <row r="9" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>202201</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1">
@@ -1853,19 +1331,19 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>122.753424657534</v>
+        <v>122.75342465753425</v>
       </c>
       <c r="J9" s="4">
         <f>I9*31</f>
-        <v>3805.35616438356</v>
+        <v>3805.3561643835619</v>
       </c>
       <c r="K9" s="4">
         <f>I9*31</f>
-        <v>3805.35616438356</v>
+        <v>3805.3561643835619</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="2"/>
-        <v>7610.71232876712</v>
+        <v>7610.7123287671238</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1878,17 +1356,17 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" customHeight="1" spans="1:22">
-      <c r="A10" s="9">
+    <row r="10" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="26">
         <v>202010</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1">
@@ -1906,11 +1384,11 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>304.027397260274</v>
+        <v>304.02739726027397</v>
       </c>
       <c r="J10" s="4">
         <f>I10*31</f>
-        <v>9424.84931506849</v>
+        <v>9424.8493150684935</v>
       </c>
       <c r="K10" s="4">
         <f>I10*15</f>
@@ -1918,7 +1396,7 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" si="2"/>
-        <v>13985.2602739726</v>
+        <v>13985.260273972603</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1931,13 +1409,13 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" customHeight="1" spans="1:22">
-      <c r="A11" s="9"/>
-      <c r="B11" s="53">
+    <row r="11" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41"/>
+      <c r="B11" s="26">
         <v>202313</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="1">
         <v>92500</v>
       </c>
@@ -1953,18 +1431,18 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>252.732240437158</v>
+        <v>252.73224043715848</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
       </c>
       <c r="K11" s="4">
         <f>I11*16</f>
-        <v>4043.71584699454</v>
+        <v>4043.7158469945357</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="2"/>
-        <v>4043.71584699454</v>
+        <v>4043.7158469945357</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1977,17 +1455,17 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" customHeight="1" spans="1:22">
-      <c r="A12" s="9">
+    <row r="12" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>202104</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="1">
@@ -2005,19 +1483,19 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="1"/>
-        <v>131.103825136612</v>
+        <v>131.10382513661202</v>
       </c>
       <c r="J12" s="4">
         <f>I12*31</f>
-        <v>4064.21857923497</v>
+        <v>4064.2185792349724</v>
       </c>
       <c r="K12" s="4">
         <f>I12*31</f>
-        <v>4064.21857923497</v>
+        <v>4064.2185792349724</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="2"/>
-        <v>8128.43715846994</v>
+        <v>8128.4371584699447</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2030,17 +1508,17 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" customHeight="1" spans="1:22">
-      <c r="A13" s="9">
+    <row r="13" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>202063</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="1">
@@ -2058,19 +1536,19 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="1"/>
-        <v>346.228356164384</v>
+        <v>346.22835616438357</v>
       </c>
       <c r="J13" s="4">
         <f>I13*31</f>
-        <v>10733.0790410959</v>
+        <v>10733.079041095891</v>
       </c>
       <c r="K13" s="4">
         <f>I13*31</f>
-        <v>10733.0790410959</v>
+        <v>10733.079041095891</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="2"/>
-        <v>21466.1580821918</v>
+        <v>21466.158082191781</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2083,17 +1561,17 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" customHeight="1" spans="1:22">
-      <c r="A14" s="9">
+    <row r="14" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41">
         <v>8</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="29">
         <v>202206</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="1">
@@ -2111,19 +1589,19 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>1498.61878453039</v>
+        <v>1498.6187845303868</v>
       </c>
       <c r="J14" s="4">
         <f>I14*31</f>
-        <v>46457.182320442</v>
+        <v>46457.182320441992</v>
       </c>
       <c r="K14" s="4">
         <f>I14*9</f>
-        <v>13487.5690607735</v>
+        <v>13487.569060773481</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="2"/>
-        <v>59944.7513812155</v>
+        <v>59944.751381215472</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="1"/>
@@ -2136,11 +1614,11 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" customHeight="1" spans="1:22">
-      <c r="A15" s="9"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="21"/>
+    <row r="15" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="1">
         <v>271250</v>
       </c>
@@ -2156,18 +1634,18 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="1"/>
-        <v>1474.1847826087</v>
+        <v>1474.1847826086957</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="4">
         <f>I15*22</f>
-        <v>32432.0652173913</v>
+        <v>32432.065217391308</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="2"/>
-        <v>32432.0652173913</v>
+        <v>32432.065217391308</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2180,17 +1658,17 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" customHeight="1" spans="1:22">
-      <c r="A16" s="9">
+    <row r="16" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>9</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="11">
         <v>202203</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="1">
@@ -2208,19 +1686,19 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="1"/>
-        <v>2145.5237704918</v>
+        <v>2145.5237704918031</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" ref="J16:J28" si="3">I16*31</f>
-        <v>66511.2368852459</v>
+        <v>66511.236885245904</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" ref="K16:K27" si="4">I16*31</f>
-        <v>66511.2368852459</v>
+        <v>66511.236885245904</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>133022.473770492</v>
+        <v>133022.47377049181</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2233,17 +1711,17 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" customHeight="1" spans="1:22">
-      <c r="A17" s="9">
+    <row r="17" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>10</v>
       </c>
       <c r="B17" s="3">
         <v>202302</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="1">
@@ -2261,19 +1739,19 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="1"/>
-        <v>128.415300546448</v>
+        <v>128.41530054644809</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="3"/>
-        <v>3980.87431693989</v>
+        <v>3980.8743169398908</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="4"/>
-        <v>3980.87431693989</v>
+        <v>3980.8743169398908</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="2"/>
-        <v>7961.74863387978</v>
+        <v>7961.7486338797817</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2286,17 +1764,17 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" customHeight="1" spans="1:22">
-      <c r="A18" s="9">
+    <row r="18" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>11</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>202204</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="1">
@@ -2314,19 +1792,19 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="1"/>
-        <v>358.850819672131</v>
+        <v>358.85081967213114</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>11124.3754098361</v>
+        <v>11124.375409836066</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="4"/>
-        <v>11124.3754098361</v>
+        <v>11124.375409836066</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="2"/>
-        <v>22248.7508196721</v>
+        <v>22248.750819672132</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2339,17 +1817,17 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" customHeight="1" spans="1:22">
-      <c r="A19" s="9">
+    <row r="19" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>12</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>202309</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="1">
@@ -2367,19 +1845,19 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="1"/>
-        <v>26.2295081967213</v>
+        <v>26.229508196721312</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="3"/>
-        <v>813.114754098361</v>
+        <v>813.11475409836066</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="4"/>
-        <v>813.114754098361</v>
+        <v>813.11475409836066</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="2"/>
-        <v>1626.22950819672</v>
+        <v>1626.2295081967213</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2392,17 +1870,17 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" customHeight="1" spans="1:22">
-      <c r="A20" s="9">
+    <row r="20" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>13</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="1">
@@ -2420,19 +1898,19 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="1"/>
-        <v>232.024657534247</v>
+        <v>232.02465753424659</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="3"/>
-        <v>7192.76438356164</v>
+        <v>7192.7643835616445</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="4"/>
-        <v>7192.76438356164</v>
+        <v>7192.7643835616445</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="2"/>
-        <v>14385.5287671233</v>
+        <v>14385.528767123289</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2445,17 +1923,17 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" customHeight="1" spans="1:22">
-      <c r="A21" s="9">
+    <row r="21" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>14</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>202305</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="1">
@@ -2473,19 +1951,19 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="1"/>
-        <v>447.75956284153</v>
+        <v>447.75956284153006</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="3"/>
-        <v>13880.5464480874</v>
+        <v>13880.546448087433</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="4"/>
-        <v>13880.5464480874</v>
+        <v>13880.546448087433</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="2"/>
-        <v>27761.0928961749</v>
+        <v>27761.092896174865</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2498,17 +1976,17 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" customHeight="1" spans="1:22">
-      <c r="A22" s="9">
+    <row r="22" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>15</v>
       </c>
       <c r="B22" s="3">
         <v>202065</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="1">
@@ -2526,19 +2004,19 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="1"/>
-        <v>194.882191780822</v>
+        <v>194.88219178082193</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="3"/>
-        <v>6041.34794520548</v>
+        <v>6041.3479452054798</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="4"/>
-        <v>6041.34794520548</v>
+        <v>6041.3479452054798</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="2"/>
-        <v>12082.695890411</v>
+        <v>12082.69589041096</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2551,17 +2029,17 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" customHeight="1" spans="1:22">
-      <c r="A23" s="9">
+    <row r="23" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>16</v>
       </c>
       <c r="B23" s="3">
         <v>202107</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="1">
@@ -2579,19 +2057,19 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="1"/>
-        <v>318.849726775956</v>
+        <v>318.8497267759563</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="3"/>
-        <v>9884.34153005465</v>
+        <v>9884.3415300546458</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="4"/>
-        <v>9884.34153005465</v>
+        <v>9884.3415300546458</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="2"/>
-        <v>19768.6830601093</v>
+        <v>19768.683060109292</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2604,17 +2082,17 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" customHeight="1" spans="1:22">
-      <c r="A24" s="9">
+    <row r="24" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
         <v>17</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="11">
         <v>202306</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="1">
@@ -2632,19 +2110,19 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="1"/>
-        <v>40.2267759562842</v>
+        <v>40.22677595628415</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="3"/>
-        <v>1247.03005464481</v>
+        <v>1247.0300546448086</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="4"/>
-        <v>1247.03005464481</v>
+        <v>1247.0300546448086</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="2"/>
-        <v>2494.06010928962</v>
+        <v>2494.0601092896172</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2657,17 +2135,17 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" customHeight="1" spans="1:22">
-      <c r="A25" s="9">
+    <row r="25" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="41">
         <v>18</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="35">
         <v>202108</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="35" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="1">
@@ -2685,19 +2163,19 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="1"/>
-        <v>132.376164383562</v>
+        <v>132.37616438356164</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="3"/>
-        <v>4103.66109589041</v>
+        <v>4103.6610958904112</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="4"/>
-        <v>4103.66109589041</v>
+        <v>4103.6610958904112</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="2"/>
-        <v>8207.32219178082</v>
+        <v>8207.3221917808223</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2710,11 +2188,11 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" customHeight="1" spans="1:22">
-      <c r="A26" s="9"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+    <row r="26" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="41"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="1">
         <v>49766.82</v>
       </c>
@@ -2730,19 +2208,19 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="1"/>
-        <v>135.974918032787</v>
+        <v>135.97491803278689</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="3"/>
-        <v>4215.22245901639</v>
+        <v>4215.2224590163933</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="4"/>
-        <v>4215.22245901639</v>
+        <v>4215.2224590163933</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="2"/>
-        <v>8430.44491803279</v>
+        <v>8430.4449180327865</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2755,17 +2233,17 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" customHeight="1" spans="1:22">
-      <c r="A27" s="9">
+    <row r="27" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
         <v>19</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="11">
         <v>202003</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="1">
@@ -2783,19 +2261,19 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="1"/>
-        <v>11.4754098360656</v>
+        <v>11.475409836065573</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="3"/>
-        <v>355.737704918033</v>
+        <v>355.73770491803276</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="4"/>
-        <v>355.737704918033</v>
+        <v>355.73770491803276</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="2"/>
-        <v>711.475409836066</v>
+        <v>711.47540983606552</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2808,17 +2286,17 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" customHeight="1" spans="1:22">
-      <c r="A28" s="9">
+    <row r="28" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="41">
         <v>20</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="35">
         <v>202110</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="1">
@@ -2836,15 +2314,15 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="1"/>
-        <v>345.119178082192</v>
+        <v>345.11917808219181</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="3"/>
-        <v>10698.6945205479</v>
+        <v>10698.694520547946</v>
       </c>
       <c r="K28" s="4">
         <f>I28*18</f>
-        <v>6212.14520547945</v>
+        <v>6212.1452054794527</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="2"/>
@@ -2861,11 +2339,11 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" customHeight="1" spans="1:22">
-      <c r="A29" s="9"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+    <row r="29" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="41"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="1">
         <v>132266.9</v>
       </c>
@@ -2881,18 +2359,18 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="1"/>
-        <v>361.384972677596</v>
+        <v>361.38497267759561</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
       </c>
       <c r="K29" s="4">
         <f>I29*13</f>
-        <v>4698.00464480874</v>
+        <v>4698.0046448087433</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="2"/>
-        <v>4698.00464480874</v>
+        <v>4698.0046448087433</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2905,17 +2383,17 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" customHeight="1" spans="1:22">
-      <c r="A30" s="9">
+    <row r="30" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
         <v>21</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="11">
         <v>202014</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="1">
@@ -2933,19 +2411,19 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="1"/>
-        <v>66.9150684931507</v>
+        <v>66.915068493150685</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" ref="J30:J35" si="5">I30*31</f>
-        <v>2074.36712328767</v>
+        <v>2074.3671232876713</v>
       </c>
       <c r="K30" s="4">
         <f>I30*31</f>
-        <v>2074.36712328767</v>
+        <v>2074.3671232876713</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="2"/>
-        <v>4148.73424657534</v>
+        <v>4148.7342465753427</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2958,17 +2436,17 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" customHeight="1" spans="1:22">
-      <c r="A31" s="9">
+    <row r="31" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
         <v>22</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="11">
         <v>202011</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="1">
@@ -2986,19 +2464,19 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="1"/>
-        <v>39.4739726027397</v>
+        <v>39.473972602739728</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
-        <v>1223.69315068493</v>
+        <v>1223.6931506849317</v>
       </c>
       <c r="K31" s="4">
         <f>I31*31</f>
-        <v>1223.69315068493</v>
+        <v>1223.6931506849317</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="2"/>
-        <v>2447.38630136986</v>
+        <v>2447.3863013698633</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -3011,17 +2489,17 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" customHeight="1" spans="1:22">
-      <c r="A32" s="9">
+    <row r="32" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
         <v>23</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="11">
         <v>202109</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="1">
@@ -3064,17 +2542,17 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" customHeight="1" spans="1:22">
-      <c r="A33" s="9">
+    <row r="33" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
         <v>24</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="11">
         <v>202113</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="1">
@@ -3117,17 +2595,17 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" customHeight="1" spans="1:22">
-      <c r="A34" s="9">
+    <row r="34" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
         <v>25</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="11">
         <v>202114</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="11" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="1">
@@ -3170,17 +2648,17 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" customHeight="1" spans="1:22">
-      <c r="A35" s="9">
+    <row r="35" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="41">
         <v>26</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="35">
         <v>202207</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="35" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="1">
@@ -3202,14 +2680,14 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" si="5"/>
-        <v>1534.54246575342</v>
+        <v>1534.5424657534247</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>1534.54246575342</v>
+        <v>1534.5424657534247</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -3222,11 +2700,11 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" customHeight="1" spans="1:22">
-      <c r="A36" s="9"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+    <row r="36" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="41"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="1">
         <v>18070</v>
       </c>
@@ -3242,18 +2720,18 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="1"/>
-        <v>49.3715846994535</v>
+        <v>49.37158469945355</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
       </c>
       <c r="K36" s="4">
         <f>I36*31</f>
-        <v>1530.51912568306</v>
+        <v>1530.5191256830601</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
-        <v>1530.51912568306</v>
+        <v>1530.5191256830601</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3266,26 +2744,26 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" customHeight="1" spans="1:12">
-      <c r="A37" s="54">
+    <row r="37" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="42">
         <v>27</v>
       </c>
-      <c r="B37" s="55">
+      <c r="B37" s="37">
         <v>202311</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="32">
-        <v>79677.68</v>
-      </c>
-      <c r="F37" s="34">
+      <c r="E37" s="18">
+        <v>79677.679999999993</v>
+      </c>
+      <c r="F37" s="19">
         <v>44774</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="19">
         <v>45138</v>
       </c>
       <c r="H37" s="3">
@@ -3294,32 +2772,32 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="1"/>
-        <v>218.29501369863</v>
-      </c>
-      <c r="J37" s="35">
+        <v>218.29501369863013</v>
+      </c>
+      <c r="J37" s="20">
         <f>I37*31</f>
-        <v>6767.14542465753</v>
-      </c>
-      <c r="K37" s="32">
+        <v>6767.145424657534</v>
+      </c>
+      <c r="K37" s="18">
         <v>0</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="2"/>
-        <v>6767.14542465753</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:12">
-      <c r="A38" s="56"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="32">
-        <v>82068.01</v>
-      </c>
-      <c r="F38" s="34">
+        <v>6767.145424657534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="43"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="18">
+        <v>82068.009999999995</v>
+      </c>
+      <c r="F38" s="19">
         <v>45139</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="19">
         <v>45504</v>
       </c>
       <c r="H38" s="3">
@@ -3328,40 +2806,40 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="1"/>
-        <v>224.229535519126</v>
-      </c>
-      <c r="J38" s="32">
+        <v>224.22953551912568</v>
+      </c>
+      <c r="J38" s="18">
         <v>0</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="20">
         <f>I38*31</f>
-        <v>6951.1156010929</v>
+        <v>6951.1156010928962</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="2"/>
-        <v>6951.1156010929</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:12">
-      <c r="A39" s="31">
+        <v>6951.1156010928962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17">
         <v>28</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="18">
         <v>202304</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="18">
         <v>313839.17</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="19">
         <v>44986</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="19">
         <v>45291</v>
       </c>
       <c r="H39" s="3">
@@ -3370,41 +2848,41 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="1"/>
-        <v>1025.61820261438</v>
-      </c>
-      <c r="J39" s="35">
+        <v>1025.618202614379</v>
+      </c>
+      <c r="J39" s="20">
         <f>I39*31</f>
-        <v>31794.1642810457</v>
-      </c>
-      <c r="K39" s="35">
+        <v>31794.164281045749</v>
+      </c>
+      <c r="K39" s="20">
         <f>I39*31</f>
-        <v>31794.1642810457</v>
+        <v>31794.164281045749</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="2"/>
-        <v>63588.3285620915</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:12">
-      <c r="A40" s="31">
+        <v>63588.328562091498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17">
         <v>29</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="18">
         <v>202303</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="18">
         <v>124556.25</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="19">
         <v>44985</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="19">
         <v>45349</v>
       </c>
       <c r="H40" s="3">
@@ -3415,11 +2893,11 @@
         <f t="shared" si="1"/>
         <v>341.25</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="20">
         <f>I40*31</f>
         <v>10578.75</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="20">
         <f>I40*31</f>
         <v>10578.75</v>
       </c>
@@ -3428,26 +2906,26 @@
         <v>21157.5</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:12">
-      <c r="A41" s="31">
+    <row r="41" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17">
         <v>30</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="18">
         <v>202202</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="18">
         <v>171247.8</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="19">
         <v>44974</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="19">
         <v>45338</v>
       </c>
       <c r="H41" s="3">
@@ -3456,41 +2934,41 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" si="1"/>
-        <v>469.172054794521</v>
-      </c>
-      <c r="J41" s="35">
+        <v>469.17205479452053</v>
+      </c>
+      <c r="J41" s="20">
         <f>I41*31</f>
-        <v>14544.3336986301</v>
-      </c>
-      <c r="K41" s="35">
+        <v>14544.333698630136</v>
+      </c>
+      <c r="K41" s="20">
         <f>I41*31</f>
-        <v>14544.3336986301</v>
+        <v>14544.333698630136</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="2"/>
-        <v>29088.6673972603</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:12">
-      <c r="A42" s="31">
+        <v>29088.667397260273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17">
         <v>31</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="18">
         <v>202116</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="18">
         <v>4800</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="19">
         <v>44927</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="19">
         <v>45291</v>
       </c>
       <c r="H42" s="3">
@@ -3499,31 +2977,31 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="1"/>
-        <v>13.1506849315068</v>
-      </c>
-      <c r="J42" s="35">
+        <v>13.150684931506849</v>
+      </c>
+      <c r="J42" s="20">
         <f>I42*31</f>
-        <v>407.671232876712</v>
-      </c>
-      <c r="K42" s="35">
+        <v>407.67123287671228</v>
+      </c>
+      <c r="K42" s="20">
         <f>I42*31</f>
-        <v>407.671232876712</v>
+        <v>407.67123287671228</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="2"/>
-        <v>815.342465753425</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="12:12">
-      <c r="L43" s="35">
+        <v>815.34246575342456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L43" s="20">
         <f>SUM(L7:L42)</f>
-        <v>1130469.84092073</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="12:12">
-      <c r="L44" s="35">
+        <v>1130469.8409207263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L44" s="20">
         <f>L43+3086800</f>
-        <v>4217269.84092073</v>
+        <v>4217269.8409207258</v>
       </c>
     </row>
   </sheetData>
@@ -3533,91 +3011,89 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.6363636363636" defaultRowHeight="32" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="21.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="19.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="16384" width="25.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:14">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+    </row>
+    <row r="2" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3660,17 +3136,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="9">
+    <row r="3" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>201714</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1">
@@ -3688,34 +3164,34 @@
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I15" si="1">E3/H3</f>
-        <v>5388.76712328767</v>
+        <v>5388.767123287671</v>
       </c>
       <c r="J3" s="4">
         <f>I3*31</f>
-        <v>167051.780821918</v>
+        <v>167051.78082191781</v>
       </c>
       <c r="K3" s="4">
         <f>I3*31</f>
-        <v>167051.780821918</v>
+        <v>167051.78082191781</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L15" si="2">J3+K3</f>
-        <v>334103.561643836</v>
+        <v>334103.56164383562</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="9">
+    <row r="4" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>202201</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1">
@@ -3733,34 +3209,34 @@
       </c>
       <c r="I4" s="4">
         <f t="shared" si="1"/>
-        <v>119.178082191781</v>
+        <v>119.17808219178082</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J9" si="3">I4*31</f>
-        <v>3694.52054794521</v>
+        <v>3694.5205479452052</v>
       </c>
       <c r="K4" s="4">
         <f>I4*31</f>
-        <v>3694.52054794521</v>
+        <v>3694.5205479452052</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>7389.04109589041</v>
+        <v>7389.0410958904104</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="9">
+    <row r="5" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
         <v>7</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="63">
         <v>202010</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="1">
@@ -3778,11 +3254,11 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>295.172602739726</v>
+        <v>295.17260273972602</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="3"/>
-        <v>9150.35068493151</v>
+        <v>9150.3506849315072</v>
       </c>
       <c r="K5" s="4">
         <f>I5*15</f>
@@ -3790,16 +3266,16 @@
       </c>
       <c r="L5" s="4">
         <f t="shared" si="2"/>
-        <v>13577.9397260274</v>
+        <v>13577.939726027398</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="9"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1">
         <v>110970</v>
       </c>
@@ -3815,33 +3291,33 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="1"/>
-        <v>304.027397260274</v>
+        <v>304.02739726027397</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="4">
         <f>I6*16</f>
-        <v>4864.43835616438</v>
+        <v>4864.4383561643835</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="2"/>
-        <v>4864.43835616438</v>
+        <v>4864.4383561643835</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="9">
+    <row r="7" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>8</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>202104</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="1">
@@ -3859,34 +3335,34 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>127.632876712329</v>
+        <v>127.63287671232877</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="3"/>
-        <v>3956.61917808219</v>
+        <v>3956.6191780821919</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" ref="K7:K22" si="4">I7*31</f>
-        <v>3956.61917808219</v>
+        <f t="shared" ref="K7:K21" si="4">I7*31</f>
+        <v>3956.6191780821919</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="2"/>
-        <v>7913.23835616438</v>
+        <v>7913.2383561643837</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="9">
+    <row r="8" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>9</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>202063</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1">
@@ -3904,34 +3380,34 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="1"/>
-        <v>336.14402739726</v>
+        <v>336.14402739726029</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="3"/>
-        <v>10420.4648493151</v>
+        <v>10420.464849315069</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="4"/>
-        <v>10420.4648493151</v>
+        <v>10420.464849315069</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="2"/>
-        <v>20840.9296986301</v>
+        <v>20840.929698630138</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="9">
+    <row r="9" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
         <v>10</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="29">
         <v>202206</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="1">
@@ -3949,28 +3425,28 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>1418.44931506849</v>
+        <v>1418.4493150684932</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="3"/>
-        <v>43971.9287671233</v>
+        <v>43971.928767123289</v>
       </c>
       <c r="K9" s="4">
         <f>I9*9</f>
-        <v>12766.0438356164</v>
+        <v>12766.04383561644</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="2"/>
-        <v>56737.9726027397</v>
+        <v>56737.972602739726</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="9"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="21"/>
+    <row r="10" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1">
         <v>271250</v>
       </c>
@@ -3986,33 +3462,33 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>1474.1847826087</v>
+        <v>1474.1847826086957</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="4">
         <f>I10*22</f>
-        <v>32432.0652173913</v>
+        <v>32432.065217391308</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="2"/>
-        <v>32432.0652173913</v>
+        <v>32432.065217391308</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="9">
+    <row r="11" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>11</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>202203</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1">
@@ -4030,38 +3506,38 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>2088.7397260274</v>
+        <v>2088.7397260273974</v>
       </c>
       <c r="J11" s="4">
         <f>I11*31</f>
-        <v>64750.9315068493</v>
+        <v>64750.931506849316</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="4"/>
-        <v>64750.9315068493</v>
+        <v>64750.931506849316</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="2"/>
-        <v>129501.863013699</v>
+        <v>129501.86301369863</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="9">
+    <row r="12" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>201914</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1">
-        <v>60389.6</v>
+        <v>60389.599999999999</v>
       </c>
       <c r="F12" s="2">
         <v>44562</v>
@@ -4075,34 +3551,34 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="1"/>
-        <v>165.45095890411</v>
+        <v>165.4509589041096</v>
       </c>
       <c r="J12" s="4">
         <f>I12*31</f>
-        <v>5128.9797260274</v>
+        <v>5128.9797260273972</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="4"/>
-        <v>5128.9797260274</v>
+        <v>5128.9797260273972</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="2"/>
-        <v>10257.9594520548</v>
+        <v>10257.959452054794</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="9">
+    <row r="13" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>13</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>202204</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="1">
@@ -4120,34 +3596,34 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="1"/>
-        <v>349.353424657534</v>
+        <v>349.35342465753422</v>
       </c>
       <c r="J13" s="4">
         <f>I13*31</f>
-        <v>10829.9561643836</v>
+        <v>10829.95616438356</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="4"/>
-        <v>10829.9561643836</v>
+        <v>10829.95616438356</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="2"/>
-        <v>21659.9123287671</v>
+        <v>21659.912328767121</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="9">
+    <row r="14" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>14</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>201801</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="1">
@@ -4165,34 +3641,34 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>22.0476712328767</v>
+        <v>22.047671232876713</v>
       </c>
       <c r="J14" s="4">
         <f>I14*31</f>
-        <v>683.477808219178</v>
+        <v>683.47780821917809</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="4"/>
-        <v>683.477808219178</v>
+        <v>683.47780821917809</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="2"/>
-        <v>1366.95561643836</v>
+        <v>1366.9556164383562</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="9">
+    <row r="15" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>15</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="1">
@@ -4210,34 +3686,34 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="1"/>
-        <v>227.47397260274</v>
+        <v>227.47397260273974</v>
       </c>
       <c r="J15" s="4">
         <f>I15*31</f>
-        <v>7051.69315068493</v>
+        <v>7051.6931506849314</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="4"/>
-        <v>7051.69315068493</v>
+        <v>7051.6931506849314</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="2"/>
-        <v>14103.3863013699</v>
+        <v>14103.386301369863</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="9">
+    <row r="16" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>202065</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="1">
@@ -4255,34 +3731,34 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" ref="I16:I33" si="6">E16/H16</f>
-        <v>191.06301369863</v>
+        <v>191.06301369863013</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" ref="J16:J22" si="7">I16*31</f>
-        <v>5922.95342465753</v>
+        <v>5922.953424657534</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="4"/>
-        <v>5922.95342465753</v>
+        <v>5922.953424657534</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" ref="L16:L33" si="8">J16+K16</f>
-        <v>11845.9068493151</v>
+        <v>11845.906849315068</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" customHeight="1" spans="1:14">
-      <c r="A17" s="9">
+    <row r="17" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>202107</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="1">
@@ -4300,34 +3776,34 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="6"/>
-        <v>318.849726775956</v>
+        <v>318.8497267759563</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="7"/>
-        <v>9884.34153005465</v>
+        <v>9884.3415300546458</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="4"/>
-        <v>9884.34153005465</v>
+        <v>9884.3415300546458</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="8"/>
-        <v>19768.6830601093</v>
+        <v>19768.683060109292</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" customHeight="1" spans="1:14">
-      <c r="A18" s="9">
+    <row r="18" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>18</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>202205</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="1">
@@ -4345,34 +3821,34 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="6"/>
-        <v>38.6301369863014</v>
+        <v>38.630136986301373</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="7"/>
-        <v>1197.53424657534</v>
+        <v>1197.5342465753426</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="4"/>
-        <v>1197.53424657534</v>
+        <v>1197.5342465753426</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="8"/>
-        <v>2395.06849315069</v>
+        <v>2395.0684931506853</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" customHeight="1" spans="1:14">
-      <c r="A19" s="25">
+    <row r="19" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="46">
         <v>19</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="35">
         <v>202108</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="35" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="1">
@@ -4390,28 +3866,28 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="6"/>
-        <v>128.520547945205</v>
+        <v>128.52054794520549</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="7"/>
-        <v>3984.13698630137</v>
+        <v>3984.1369863013701</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="4"/>
-        <v>3984.13698630137</v>
+        <v>3984.1369863013701</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="8"/>
-        <v>7968.27397260274</v>
+        <v>7968.2739726027403</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" customHeight="1" spans="1:14">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+    <row r="20" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="47"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="1">
         <v>48317.3</v>
       </c>
@@ -4427,34 +3903,34 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="6"/>
-        <v>132.376164383562</v>
+        <v>132.37616438356164</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="7"/>
-        <v>4103.66109589041</v>
+        <v>4103.6610958904112</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="4"/>
-        <v>4103.66109589041</v>
+        <v>4103.6610958904112</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="8"/>
-        <v>8207.32219178082</v>
+        <v>8207.3221917808223</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" customHeight="1" spans="1:14">
-      <c r="A21" s="9">
+    <row r="21" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="11">
         <v>202003</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="1">
@@ -4472,34 +3948,34 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="6"/>
-        <v>11.5068493150685</v>
+        <v>11.506849315068493</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="7"/>
-        <v>356.712328767123</v>
+        <v>356.71232876712327</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="4"/>
-        <v>356.712328767123</v>
+        <v>356.71232876712327</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="8"/>
-        <v>713.424657534247</v>
+        <v>713.42465753424653</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" customHeight="1" spans="1:14">
-      <c r="A22" s="9">
+    <row r="22" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="41">
         <v>21</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="35">
         <v>202110</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="1">
@@ -4517,28 +3993,28 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" si="6"/>
-        <v>328.684931506849</v>
+        <v>328.6849315068493</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="7"/>
-        <v>10189.2328767123</v>
+        <v>10189.232876712329</v>
       </c>
       <c r="K22" s="4">
         <f>I22*18</f>
-        <v>5916.32876712329</v>
+        <v>5916.3287671232874</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="8"/>
-        <v>16105.5616438356</v>
+        <v>16105.561643835616</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="9"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+    <row r="23" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="41"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="1">
         <v>125968.5</v>
       </c>
@@ -4554,33 +4030,33 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="6"/>
-        <v>345.119178082192</v>
+        <v>345.11917808219181</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4">
         <f>I23*13</f>
-        <v>4486.54931506849</v>
+        <v>4486.5493150684933</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="8"/>
-        <v>4486.54931506849</v>
+        <v>4486.5493150684933</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="9">
+    <row r="24" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="11">
         <v>202014</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="1">
@@ -4598,34 +4074,34 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="6"/>
-        <v>64.9671232876712</v>
+        <v>64.967123287671228</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" ref="J24:J29" si="9">I24*31</f>
-        <v>2013.98082191781</v>
+        <v>2013.980821917808</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" ref="K24:K28" si="10">I24*31</f>
-        <v>2013.98082191781</v>
+        <v>2013.980821917808</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="8"/>
-        <v>4027.96164383562</v>
+        <v>4027.9616438356161</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" customHeight="1" spans="1:14">
-      <c r="A25" s="9">
+    <row r="25" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="11">
         <v>202011</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="1">
@@ -4643,34 +4119,34 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="6"/>
-        <v>38.3232876712329</v>
+        <v>38.323287671232876</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="9"/>
-        <v>1188.02191780822</v>
+        <v>1188.0219178082191</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="10"/>
-        <v>1188.02191780822</v>
+        <v>1188.0219178082191</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="8"/>
-        <v>2376.04383561644</v>
+        <v>2376.0438356164382</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" customHeight="1" spans="1:14">
-      <c r="A26" s="9">
+    <row r="26" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="11">
         <v>202109</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="1">
@@ -4705,17 +4181,17 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" customHeight="1" spans="1:14">
-      <c r="A27" s="9">
+    <row r="27" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="11">
         <v>202113</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="1">
@@ -4750,17 +4226,17 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" customHeight="1" spans="1:14">
-      <c r="A28" s="9">
+    <row r="28" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="11">
         <v>202114</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="11" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="1">
@@ -4795,17 +4271,17 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" customHeight="1" spans="1:14">
-      <c r="A29" s="9">
+    <row r="29" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="16">
         <v>202106</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="35" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="1">
@@ -4823,29 +4299,29 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="6"/>
-        <v>37.3972602739726</v>
+        <v>37.397260273972606</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="9"/>
-        <v>1159.31506849315</v>
+        <v>1159.3150684931509</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="8"/>
-        <v>1159.31506849315</v>
+        <v>1159.3150684931509</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" customHeight="1" spans="1:14">
-      <c r="A30" s="9"/>
-      <c r="B30" s="26">
+    <row r="30" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="41"/>
+      <c r="B30" s="15">
         <v>202207</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="1">
         <v>18068</v>
       </c>
@@ -4868,24 +4344,24 @@
       </c>
       <c r="K30" s="4">
         <f>I30*31</f>
-        <v>1534.54246575342</v>
+        <v>1534.5424657534247</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="8"/>
-        <v>1534.54246575342</v>
+        <v>1534.5424657534247</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" customHeight="1" spans="1:14">
-      <c r="A31" s="9"/>
-      <c r="B31" s="26">
+    <row r="31" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="15">
         <v>201907</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="62" t="s">
         <v>71</v>
       </c>
       <c r="E31" s="1">
@@ -4903,38 +4379,38 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="6"/>
-        <v>156.955068493151</v>
+        <v>156.95506849315069</v>
       </c>
       <c r="J31" s="4">
         <f>I31*31</f>
-        <v>4865.60712328767</v>
+        <v>4865.6071232876711</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="8"/>
-        <v>4865.60712328767</v>
+        <v>4865.6071232876711</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" customHeight="1" spans="1:14">
-      <c r="A32" s="31">
+    <row r="32" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17">
         <v>28</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="18">
         <v>202311</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="32">
-        <v>79677.68</v>
-      </c>
-      <c r="F32" s="34">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="18">
+        <v>79677.679999999993</v>
+      </c>
+      <c r="F32" s="19">
         <v>44774</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="19">
         <v>45138</v>
       </c>
       <c r="H32" s="3">
@@ -4943,42 +4419,42 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="6"/>
-        <v>218.29501369863</v>
-      </c>
-      <c r="J32" s="35">
+        <v>218.29501369863013</v>
+      </c>
+      <c r="J32" s="20">
         <v>0</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="20">
         <f>I32*31</f>
-        <v>6767.14542465753</v>
+        <v>6767.145424657534</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="8"/>
-        <v>6767.14542465753</v>
-      </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:14">
-      <c r="A33" s="31">
+        <v>6767.145424657534</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
         <v>30</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="18">
         <v>202202</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="18">
         <v>166260</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="19">
         <v>44609</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="19">
         <v>44973</v>
       </c>
       <c r="H33" s="3">
@@ -4987,33 +4463,33 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="6"/>
-        <v>455.506849315069</v>
-      </c>
-      <c r="J33" s="35">
+        <v>455.50684931506851</v>
+      </c>
+      <c r="J33" s="20">
         <f>I33*31</f>
-        <v>14120.7123287671</v>
-      </c>
-      <c r="K33" s="35">
+        <v>14120.712328767124</v>
+      </c>
+      <c r="K33" s="20">
         <f>I33*31</f>
-        <v>14120.7123287671</v>
+        <v>14120.712328767124</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="8"/>
-        <v>28241.4246575342</v>
-      </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-    </row>
-    <row r="34" customHeight="1" spans="12:12">
+        <v>28241.424657534248</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L34" s="6">
         <f>SUM(L3:L33)</f>
-        <v>953772.093811747</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="12:12">
+        <v>953772.09381174704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L35">
         <f>L34+2330500</f>
-        <v>3284272.09381175</v>
+        <v>3284272.0938117472</v>
       </c>
     </row>
   </sheetData>
@@ -5023,15 +4499,15 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D5:D6"/>
@@ -5041,33 +4517,32 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="22.7636363636364" customWidth="1"/>
-    <col min="3" max="3" width="28.2909090909091" customWidth="1"/>
-    <col min="4" max="6" width="18.9727272727273" customWidth="1"/>
-    <col min="7" max="7" width="22.7727272727273" customWidth="1"/>
-    <col min="8" max="9" width="21.2636363636364" customWidth="1"/>
-    <col min="10" max="10" width="12.9090909090909"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="12.875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1" spans="1:9">
+    <row r="1" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5094,7 +4569,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="76" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>14408</v>
       </c>
@@ -5110,7 +4585,7 @@
       </c>
       <c r="E2" s="4">
         <f>A2/D2</f>
-        <v>39.4739726027397</v>
+        <v>39.473972602739728</v>
       </c>
       <c r="F2" s="2">
         <v>45170</v>
@@ -5124,13 +4599,13 @@
       </c>
       <c r="I2" s="5">
         <f>E2*H2</f>
-        <v>236.843835616438</v>
+        <v>236.84383561643835</v>
       </c>
       <c r="J2" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>